--- a/excel_routes/route_JED_CAI_threats.xlsx
+++ b/excel_routes/route_JED_CAI_threats.xlsx
@@ -33,7 +33,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -50,12 +50,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00D4EDDA"/>
         <bgColor rgb="00D4EDDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFF3CD"/>
-        <bgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -77,7 +71,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -86,9 +80,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -456,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K196"/>
+  <dimension ref="A1:K191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +464,7 @@
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="19" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -537,7 +528,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -547,17 +538,17 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>658</v>
+        <v>503</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>706</v>
+        <v>526</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-48</v>
+        <v>-23</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30</v>
@@ -582,12 +573,12 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>11-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
@@ -596,13 +587,13 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>691</v>
+        <v>503</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>706</v>
+        <v>586</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-15</v>
+        <v>-83</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>30</v>
@@ -632,31 +623,31 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>SM-476</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>503</v>
+        <v>719</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>526</v>
+        <v>586</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-23</v>
+        <v>133</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -682,26 +673,26 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>503</v>
+        <v>719</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-83</v>
+        <v>133</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J5" s="3" t="inlineStr">
         <is>
@@ -727,7 +718,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
@@ -772,26 +763,26 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>825</v>
+        <v>719</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J7" s="3" t="inlineStr">
         <is>
@@ -807,36 +798,36 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>400</v>
+        <v>719</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-36</v>
+        <v>133</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H8" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J8" s="3" t="inlineStr">
         <is>
@@ -852,36 +843,36 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>14-JAN-26</t>
+          <t>13-JAN-26</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>400</v>
+        <v>825</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>436</v>
+        <v>586</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-36</v>
+        <v>239</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J9" s="3" t="inlineStr">
         <is>
@@ -902,7 +893,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -914,10 +905,10 @@
         <v>400</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-126</v>
+        <v>-36</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30</v>
@@ -947,7 +938,7 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
@@ -959,10 +950,10 @@
         <v>400</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-126</v>
+        <v>-36</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30</v>
@@ -997,17 +988,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>503</v>
+        <v>400</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-23</v>
+        <v>-126</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>30</v>
@@ -1042,26 +1033,26 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>639</v>
+        <v>400</v>
       </c>
       <c r="E13" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>113</v>
+        <v>-126</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3" t="inlineStr">
         <is>
@@ -1087,26 +1078,26 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>639</v>
+        <v>503</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>113</v>
+        <v>-23</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="inlineStr">
         <is>
@@ -1122,36 +1113,36 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>15-JAN-26</t>
+          <t>14-JAN-26</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>400</v>
+        <v>639</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>401</v>
+        <v>526</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-1</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J15" s="3" t="inlineStr">
         <is>
@@ -1177,7 +1168,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
@@ -1217,22 +1208,22 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
         <v>400</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-36</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>30</v>
@@ -1267,7 +1258,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
@@ -1312,17 +1303,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>436</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-35</v>
+        <v>-36</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>30</v>
@@ -1347,27 +1338,27 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>16-JAN-26</t>
+          <t>15-JAN-26</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-27</v>
+        <v>-35</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>30</v>
@@ -1406,13 +1397,13 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E21" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-27</v>
+        <v>-46</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30</v>
@@ -1447,17 +1438,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>400</v>
+        <v>374</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-1</v>
+        <v>-27</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>30</v>
@@ -1482,27 +1473,27 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>17-JAN-26</t>
+          <t>16-JAN-26</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-46</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>30</v>
@@ -1537,26 +1528,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>461</v>
+        <v>355</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>60</v>
+        <v>-46</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="inlineStr">
         <is>
@@ -1717,30 +1708,30 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>461</v>
+        <v>559</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>436</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J28" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>-10</v>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1762,26 +1753,26 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>644</v>
+        <v>559</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>436</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>208</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J29" s="3" t="inlineStr">
         <is>
@@ -1797,36 +1788,36 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>18-JAN-26</t>
+          <t>17-JAN-26</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>SM-432</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>Saudia SV-301</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>355</v>
+        <v>644</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-46</v>
+        <v>208</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J30" s="3" t="inlineStr">
         <is>
@@ -1852,17 +1843,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-177</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-1</v>
+        <v>-46</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>30</v>
@@ -1897,7 +1888,7 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>Nesma Airlines NE-177</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
@@ -1942,26 +1933,26 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3" t="inlineStr">
         <is>
@@ -1987,26 +1978,26 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J34" s="3" t="inlineStr">
         <is>
@@ -2032,26 +2023,26 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J35" s="3" t="inlineStr">
         <is>
@@ -2067,36 +2058,36 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="E36" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-52</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J36" s="3" t="inlineStr">
         <is>
@@ -2112,36 +2103,36 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>349</v>
+        <v>519</v>
       </c>
       <c r="E37" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-52</v>
+        <v>118</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J37" s="3" t="inlineStr">
         <is>
@@ -2157,36 +2148,36 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>18-JAN-26</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-432</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="E38" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-1</v>
+        <v>132</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J38" s="3" t="inlineStr">
         <is>
@@ -2212,26 +2203,26 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-383</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>461</v>
+        <v>349</v>
       </c>
       <c r="E39" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>60</v>
+        <v>-52</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3" t="inlineStr">
         <is>
@@ -2257,26 +2248,26 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>461</v>
+        <v>349</v>
       </c>
       <c r="E40" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>60</v>
+        <v>-52</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3" t="inlineStr">
         <is>
@@ -2302,26 +2293,26 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>519</v>
+        <v>400</v>
       </c>
       <c r="E41" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>118</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="inlineStr">
         <is>
@@ -2347,7 +2338,7 @@
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
@@ -2392,26 +2383,26 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-309</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E43" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J43" s="3" t="inlineStr">
         <is>
@@ -2427,7 +2418,7 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>19-JAN-26</t>
+          <t>20-JAN-26</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
@@ -2437,26 +2428,26 @@
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-387</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>533</v>
+        <v>400</v>
       </c>
       <c r="E44" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>132</v>
+        <v>-1</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="inlineStr">
         <is>
@@ -2482,26 +2473,26 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>400</v>
+        <v>461</v>
       </c>
       <c r="E45" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-1</v>
+        <v>60</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J45" s="3" t="inlineStr">
         <is>
@@ -2842,7 +2833,7 @@
       </c>
       <c r="C53" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
@@ -2887,26 +2878,26 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="E54" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I54" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J54" s="3" t="inlineStr">
         <is>
@@ -2932,26 +2923,26 @@
       </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="E55" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J55" s="3" t="inlineStr">
         <is>
@@ -2977,26 +2968,26 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="E56" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I56" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J56" s="3" t="inlineStr">
         <is>
@@ -3022,26 +3013,26 @@
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="E57" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J57" s="3" t="inlineStr">
         <is>
@@ -3067,7 +3058,7 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
@@ -3112,7 +3103,7 @@
       </c>
       <c r="C59" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
@@ -3147,36 +3138,36 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>605</v>
+        <v>368</v>
       </c>
       <c r="E60" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>204</v>
+        <v>-33</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3" t="inlineStr">
         <is>
@@ -3192,36 +3183,36 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>21-JAN-26</t>
+          <t>22-JAN-26</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="E61" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>204</v>
+        <v>-1</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3" t="inlineStr">
         <is>
@@ -3247,26 +3238,26 @@
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>368</v>
+        <v>605</v>
       </c>
       <c r="E62" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>-33</v>
+        <v>204</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J62" s="3" t="inlineStr">
         <is>
@@ -3287,22 +3278,22 @@
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>-1</v>
+        <v>-103</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>30</v>
@@ -3332,31 +3323,31 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>60</v>
+        <v>-71</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I64" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J64" s="3" t="inlineStr">
         <is>
@@ -3377,31 +3368,31 @@
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
-        <v>605</v>
+        <v>401</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>204</v>
+        <v>-70</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J65" s="3" t="inlineStr">
         <is>
@@ -3427,26 +3418,26 @@
       </c>
       <c r="C66" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
-        <v>368</v>
+        <v>559</v>
       </c>
       <c r="E66" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>-103</v>
+        <v>88</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J66" s="3" t="inlineStr">
         <is>
@@ -3472,26 +3463,26 @@
       </c>
       <c r="C67" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="E67" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>-71</v>
+        <v>88</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J67" s="3" t="inlineStr">
         <is>
@@ -3517,26 +3508,26 @@
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D68" s="2" t="n">
-        <v>401</v>
+        <v>599</v>
       </c>
       <c r="E68" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>-70</v>
+        <v>128</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J68" s="3" t="inlineStr">
         <is>
@@ -3562,30 +3553,30 @@
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D69" s="2" t="n">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="E69" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F69" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I69" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="G69" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H69" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I69" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J69" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J69" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K69" s="2" t="inlineStr">
@@ -3607,17 +3598,17 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D70" s="2" t="n">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="E70" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>40</v>
@@ -3652,26 +3643,26 @@
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D71" s="2" t="n">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="E71" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I71" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J71" s="3" t="inlineStr">
         <is>
@@ -3697,26 +3688,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D72" s="2" t="n">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="E72" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I72" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J72" s="3" t="inlineStr">
         <is>
@@ -3742,26 +3733,26 @@
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D73" s="2" t="n">
-        <v>599</v>
+        <v>700</v>
       </c>
       <c r="E73" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>128</v>
+        <v>229</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I73" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J73" s="3" t="inlineStr">
         <is>
@@ -3782,31 +3773,31 @@
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-569</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>599</v>
+        <v>368</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>128</v>
+        <v>-68</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I74" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J74" s="3" t="inlineStr">
         <is>
@@ -3827,31 +3818,31 @@
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D75" s="2" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>134</v>
+        <v>-36</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I75" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J75" s="3" t="inlineStr">
         <is>
@@ -3872,31 +3863,31 @@
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>644</v>
+        <v>401</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>173</v>
+        <v>-35</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I76" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="inlineStr">
         <is>
@@ -3917,31 +3908,31 @@
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D77" s="2" t="n">
-        <v>700</v>
+        <v>559</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J77" s="3" t="inlineStr">
         <is>
@@ -3962,31 +3953,31 @@
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D78" s="2" t="n">
-        <v>700</v>
+        <v>559</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>471</v>
+        <v>436</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H78" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I78" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J78" s="3" t="inlineStr">
         <is>
@@ -4012,26 +4003,26 @@
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D79" s="2" t="n">
-        <v>368</v>
+        <v>605</v>
       </c>
       <c r="E79" s="2" t="n">
         <v>436</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>-68</v>
+        <v>169</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H79" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I79" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J79" s="3" t="inlineStr">
         <is>
@@ -4047,7 +4038,7 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
@@ -4057,17 +4048,17 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D80" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>-36</v>
+        <v>-46</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>30</v>
@@ -4092,7 +4083,7 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
@@ -4102,17 +4093,17 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D81" s="2" t="n">
+        <v>374</v>
+      </c>
+      <c r="E81" s="2" t="n">
         <v>401</v>
       </c>
-      <c r="E81" s="2" t="n">
-        <v>436</v>
-      </c>
       <c r="F81" s="2" t="n">
-        <v>-35</v>
+        <v>-27</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>30</v>
@@ -4137,7 +4128,7 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
@@ -4147,30 +4138,30 @@
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-383</t>
         </is>
       </c>
       <c r="D82" s="2" t="n">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>25</v>
+        <v>-27</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H82" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I82" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J82" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+        <v>0</v>
+      </c>
+      <c r="J82" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K82" s="2" t="inlineStr">
@@ -4182,7 +4173,7 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
@@ -4192,26 +4183,26 @@
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D83" s="2" t="n">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>123</v>
+        <v>-1</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H83" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I83" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="inlineStr">
         <is>
@@ -4227,7 +4218,7 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
@@ -4237,26 +4228,26 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Saudia SV-383</t>
         </is>
       </c>
       <c r="D84" s="2" t="n">
-        <v>559</v>
+        <v>461</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H84" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I84" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J84" s="3" t="inlineStr">
         <is>
@@ -4272,7 +4263,7 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
@@ -4282,17 +4273,17 @@
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D85" s="2" t="n">
-        <v>605</v>
+        <v>461</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>169</v>
+        <v>60</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>46</v>
@@ -4317,7 +4308,7 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>22-JAN-26</t>
+          <t>23-JAN-26</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
@@ -4327,26 +4318,26 @@
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-301</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D86" s="2" t="n">
-        <v>644</v>
+        <v>519</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>436</v>
+        <v>401</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>208</v>
+        <v>118</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H86" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I86" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J86" s="3" t="inlineStr">
         <is>
@@ -4372,26 +4363,26 @@
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D87" s="2" t="n">
-        <v>355</v>
+        <v>519</v>
       </c>
       <c r="E87" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>-46</v>
+        <v>118</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H87" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I87" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J87" s="3" t="inlineStr">
         <is>
@@ -4417,26 +4408,26 @@
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D88" s="2" t="n">
-        <v>374</v>
+        <v>519</v>
       </c>
       <c r="E88" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>-27</v>
+        <v>118</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H88" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I88" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J88" s="3" t="inlineStr">
         <is>
@@ -4462,26 +4453,26 @@
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-383</t>
+          <t>Saudia SV-387</t>
         </is>
       </c>
       <c r="D89" s="2" t="n">
-        <v>374</v>
+        <v>533</v>
       </c>
       <c r="E89" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F89" s="2" t="n">
-        <v>-27</v>
+        <v>132</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H89" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I89" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J89" s="3" t="inlineStr">
         <is>
@@ -4507,26 +4498,26 @@
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D90" s="2" t="n">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="E90" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F90" s="2" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H90" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I90" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J90" s="3" t="inlineStr">
         <is>
@@ -4552,17 +4543,17 @@
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D91" s="2" t="n">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="E91" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F91" s="2" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>46</v>
@@ -4597,26 +4588,26 @@
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D92" s="2" t="n">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="E92" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F92" s="2" t="n">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H92" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I92" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J92" s="3" t="inlineStr">
         <is>
@@ -4642,26 +4633,26 @@
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D93" s="2" t="n">
-        <v>519</v>
+        <v>613</v>
       </c>
       <c r="E93" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F93" s="2" t="n">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H93" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I93" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J93" s="3" t="inlineStr">
         <is>
@@ -4677,36 +4668,36 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>519</v>
+        <v>355</v>
       </c>
       <c r="E94" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F94" s="2" t="n">
-        <v>118</v>
+        <v>-46</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H94" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I94" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="inlineStr">
         <is>
@@ -4722,36 +4713,36 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-387</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D95" s="2" t="n">
-        <v>533</v>
+        <v>374</v>
       </c>
       <c r="E95" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>132</v>
+        <v>-27</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I95" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J95" s="3" t="inlineStr">
         <is>
@@ -4767,36 +4758,36 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="E96" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F96" s="2" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H96" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I96" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3" t="inlineStr">
         <is>
@@ -4812,36 +4803,36 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D97" s="2" t="n">
-        <v>605</v>
+        <v>519</v>
       </c>
       <c r="E97" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F97" s="2" t="n">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H97" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I97" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J97" s="3" t="inlineStr">
         <is>
@@ -4857,27 +4848,27 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>613</v>
+        <v>533</v>
       </c>
       <c r="E98" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F98" s="2" t="n">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>46</v>
@@ -4902,27 +4893,27 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>23-JAN-26</t>
+          <t>24-JAN-26</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D99" s="2" t="n">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E99" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F99" s="2" t="n">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>46</v>
@@ -4957,26 +4948,26 @@
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D100" s="2" t="n">
-        <v>355</v>
+        <v>605</v>
       </c>
       <c r="E100" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F100" s="2" t="n">
-        <v>-46</v>
+        <v>204</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H100" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I100" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J100" s="3" t="inlineStr">
         <is>
@@ -5002,26 +4993,26 @@
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D101" s="2" t="n">
-        <v>374</v>
+        <v>613</v>
       </c>
       <c r="E101" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F101" s="2" t="n">
-        <v>-27</v>
+        <v>212</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H101" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I101" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J101" s="3" t="inlineStr">
         <is>
@@ -5042,22 +5033,22 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D102" s="2" t="n">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-1</v>
+        <v>-116</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>30</v>
@@ -5087,31 +5078,31 @@
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D103" s="2" t="n">
-        <v>461</v>
+        <v>374</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F103" s="2" t="n">
-        <v>60</v>
+        <v>-97</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H103" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I103" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J103" s="3" t="inlineStr">
         <is>
@@ -5132,31 +5123,31 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D104" s="2" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>204</v>
+        <v>-71</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H104" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I104" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J104" s="3" t="inlineStr">
         <is>
@@ -5177,31 +5168,31 @@
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D105" s="2" t="n">
-        <v>605</v>
+        <v>401</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F105" s="2" t="n">
-        <v>204</v>
+        <v>-70</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H105" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I105" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J105" s="3" t="inlineStr">
         <is>
@@ -5222,31 +5213,31 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D106" s="2" t="n">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F106" s="2" t="n">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H106" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I106" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J106" s="3" t="inlineStr">
         <is>
@@ -5272,26 +5263,26 @@
       </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Saudia SV-309</t>
         </is>
       </c>
       <c r="D107" s="2" t="n">
-        <v>355</v>
+        <v>533</v>
       </c>
       <c r="E107" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F107" s="2" t="n">
-        <v>-116</v>
+        <v>62</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H107" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I107" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J107" s="3" t="inlineStr">
         <is>
@@ -5317,26 +5308,26 @@
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D108" s="2" t="n">
-        <v>374</v>
+        <v>559</v>
       </c>
       <c r="E108" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F108" s="2" t="n">
-        <v>-97</v>
+        <v>88</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H108" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I108" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J108" s="3" t="inlineStr">
         <is>
@@ -5362,26 +5353,26 @@
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D109" s="2" t="n">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="E109" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F109" s="2" t="n">
-        <v>-71</v>
+        <v>88</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H109" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I109" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J109" s="3" t="inlineStr">
         <is>
@@ -5407,26 +5398,26 @@
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D110" s="2" t="n">
-        <v>401</v>
+        <v>559</v>
       </c>
       <c r="E110" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F110" s="2" t="n">
-        <v>-70</v>
+        <v>88</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H110" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I110" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J110" s="3" t="inlineStr">
         <is>
@@ -5452,30 +5443,30 @@
       </c>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D111" s="2" t="n">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="E111" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F111" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="I111" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="G111" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H111" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I111" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J111" s="4" t="inlineStr">
-        <is>
-          <t>MEDIUM THREAT - MONITOR</t>
+      <c r="J111" s="3" t="inlineStr">
+        <is>
+          <t>LOW THREAT</t>
         </is>
       </c>
       <c r="K111" s="2" t="inlineStr">
@@ -5497,17 +5488,17 @@
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D112" s="2" t="n">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="E112" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F112" s="2" t="n">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>40</v>
@@ -5542,26 +5533,26 @@
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D113" s="2" t="n">
-        <v>559</v>
+        <v>605</v>
       </c>
       <c r="E113" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F113" s="2" t="n">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H113" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I113" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J113" s="3" t="inlineStr">
         <is>
@@ -5587,7 +5578,7 @@
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D114" s="2" t="n">
@@ -5632,17 +5623,17 @@
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D115" s="2" t="n">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E115" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F115" s="2" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>46</v>
@@ -5677,17 +5668,17 @@
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>613</v>
+        <v>700</v>
       </c>
       <c r="E116" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F116" s="2" t="n">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>46</v>
@@ -5712,7 +5703,7 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>24-JAN-26</t>
+          <t>25-JAN-26</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
@@ -5722,26 +5713,26 @@
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Nesma Airlines NE-177</t>
         </is>
       </c>
       <c r="D117" s="2" t="n">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>471</v>
+        <v>401</v>
       </c>
       <c r="F117" s="2" t="n">
-        <v>229</v>
+        <v>-1</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H117" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J117" s="3" t="inlineStr">
         <is>
@@ -5767,7 +5758,7 @@
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-177</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D118" s="2" t="n">
@@ -5812,26 +5803,26 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D119" s="2" t="n">
-        <v>400</v>
+        <v>545</v>
       </c>
       <c r="E119" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F119" s="2" t="n">
-        <v>-1</v>
+        <v>144</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H119" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J119" s="3" t="inlineStr">
         <is>
@@ -5857,17 +5848,17 @@
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-383</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D120" s="2" t="n">
-        <v>461</v>
+        <v>605</v>
       </c>
       <c r="E120" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>46</v>
@@ -5892,36 +5883,36 @@
     <row r="121">
       <c r="A121" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B121" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C121" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D121" s="2" t="n">
-        <v>461</v>
+        <v>368</v>
       </c>
       <c r="E121" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F121" s="2" t="n">
-        <v>60</v>
+        <v>-33</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H121" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J121" s="3" t="inlineStr">
         <is>
@@ -5937,36 +5928,36 @@
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D122" s="2" t="n">
-        <v>545</v>
+        <v>387</v>
       </c>
       <c r="E122" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>144</v>
+        <v>-14</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H122" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J122" s="3" t="inlineStr">
         <is>
@@ -5982,36 +5973,36 @@
     <row r="123">
       <c r="A123" s="2" t="inlineStr">
         <is>
-          <t>25-JAN-26</t>
+          <t>26-JAN-26</t>
         </is>
       </c>
       <c r="B123" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C123" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nesma Airlines NE-173</t>
         </is>
       </c>
       <c r="D123" s="2" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="E123" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>204</v>
+        <v>-1</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H123" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I123" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J123" s="3" t="inlineStr">
         <is>
@@ -6037,26 +6028,26 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Saudia SV-335</t>
         </is>
       </c>
       <c r="D124" s="2" t="n">
-        <v>368</v>
+        <v>461</v>
       </c>
       <c r="E124" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-33</v>
+        <v>60</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H124" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J124" s="3" t="inlineStr">
         <is>
@@ -6082,26 +6073,26 @@
       </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-668</t>
         </is>
       </c>
       <c r="D125" s="2" t="n">
-        <v>387</v>
+        <v>545</v>
       </c>
       <c r="E125" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-14</v>
+        <v>144</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H125" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I125" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J125" s="3" t="inlineStr">
         <is>
@@ -6117,7 +6108,7 @@
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
@@ -6127,17 +6118,17 @@
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-173</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D126" s="2" t="n">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="E126" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>-1</v>
+        <v>-14</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>30</v>
@@ -6162,7 +6153,7 @@
     <row r="127">
       <c r="A127" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B127" s="2" t="inlineStr">
@@ -6172,26 +6163,26 @@
       </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D127" s="2" t="n">
-        <v>461</v>
+        <v>400</v>
       </c>
       <c r="E127" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>60</v>
+        <v>-1</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H127" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I127" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J127" s="3" t="inlineStr">
         <is>
@@ -6207,7 +6198,7 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
@@ -6217,26 +6208,26 @@
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Saudia SV-307</t>
         </is>
       </c>
       <c r="D128" s="2" t="n">
-        <v>519</v>
+        <v>461</v>
       </c>
       <c r="E128" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F128" s="2" t="n">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H128" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J128" s="3" t="inlineStr">
         <is>
@@ -6252,7 +6243,7 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
@@ -6262,26 +6253,26 @@
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>EgyptAir MS-674</t>
         </is>
       </c>
       <c r="D129" s="2" t="n">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="E129" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F129" s="2" t="n">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H129" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J129" s="3" t="inlineStr">
         <is>
@@ -6297,7 +6288,7 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>27-JAN-26</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
@@ -6307,26 +6298,26 @@
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D130" s="2" t="n">
-        <v>519</v>
+        <v>605</v>
       </c>
       <c r="E130" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F130" s="2" t="n">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H130" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J130" s="3" t="inlineStr">
         <is>
@@ -6342,36 +6333,36 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>26-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-668</t>
+          <t>Nesma Airlines NE-175</t>
         </is>
       </c>
       <c r="D131" s="2" t="n">
-        <v>545</v>
+        <v>400</v>
       </c>
       <c r="E131" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F131" s="2" t="n">
-        <v>144</v>
+        <v>-1</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H131" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I131" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J131" s="3" t="inlineStr">
         <is>
@@ -6387,27 +6378,27 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D132" s="2" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="E132" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F132" s="2" t="n">
-        <v>-14</v>
+        <v>-1</v>
       </c>
       <c r="G132" s="2" t="n">
         <v>30</v>
@@ -6432,36 +6423,36 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D133" s="2" t="n">
-        <v>400</v>
+        <v>519</v>
       </c>
       <c r="E133" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F133" s="2" t="n">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H133" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I133" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J133" s="3" t="inlineStr">
         <is>
@@ -6477,36 +6468,36 @@
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-307</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D134" s="2" t="n">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="E134" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F134" s="2" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H134" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I134" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J134" s="3" t="inlineStr">
         <is>
@@ -6522,36 +6513,36 @@
     <row r="135">
       <c r="A135" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B135" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Saudia SV-335</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>461</v>
+        <v>519</v>
       </c>
       <c r="E135" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F135" s="2" t="n">
-        <v>60</v>
+        <v>118</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H135" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J135" s="3" t="inlineStr">
         <is>
@@ -6567,17 +6558,17 @@
     <row r="136">
       <c r="A136" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-674</t>
+          <t>EgyptAir MS-664</t>
         </is>
       </c>
       <c r="D136" s="2" t="n">
@@ -6612,27 +6603,27 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>27-JAN-26</t>
+          <t>28-JAN-26</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D137" s="2" t="n">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="E137" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F137" s="2" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G137" s="2" t="n">
         <v>46</v>
@@ -6657,17 +6648,17 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-175</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D138" s="2" t="n">
@@ -6702,36 +6693,36 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-450</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D139" s="2" t="n">
-        <v>400</v>
+        <v>605</v>
       </c>
       <c r="E139" s="2" t="n">
         <v>401</v>
       </c>
       <c r="F139" s="2" t="n">
-        <v>-1</v>
+        <v>204</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H139" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I139" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J139" s="3" t="inlineStr">
         <is>
@@ -6747,7 +6738,7 @@
     <row r="140">
       <c r="A140" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B140" s="2" t="inlineStr">
@@ -6757,26 +6748,26 @@
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-664</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D140" s="2" t="n">
-        <v>605</v>
+        <v>400</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F140" s="2" t="n">
-        <v>204</v>
+        <v>-71</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H140" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I140" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J140" s="3" t="inlineStr">
         <is>
@@ -6792,7 +6783,7 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>28-JAN-26</t>
+          <t>29-JAN-26</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
@@ -6806,13 +6797,13 @@
         </is>
       </c>
       <c r="D141" s="2" t="n">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F141" s="2" t="n">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="G141" s="2" t="n">
         <v>46</v>
@@ -6842,31 +6833,31 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>EgyptAir MS-644</t>
         </is>
       </c>
       <c r="D142" s="2" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F142" s="2" t="n">
-        <v>-1</v>
+        <v>229</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H142" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I142" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J142" s="3" t="inlineStr">
         <is>
@@ -6887,22 +6878,22 @@
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>EgyptAir MS-662</t>
         </is>
       </c>
       <c r="D143" s="2" t="n">
-        <v>605</v>
+        <v>700</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>401</v>
+        <v>471</v>
       </c>
       <c r="F143" s="2" t="n">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G143" s="2" t="n">
         <v>46</v>
@@ -6932,31 +6923,31 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D144" s="2" t="n">
-        <v>400</v>
+        <v>369</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-71</v>
+        <v>-157</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H144" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J144" s="3" t="inlineStr">
         <is>
@@ -6977,31 +6968,31 @@
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D145" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F145" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H145" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I145" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J145" s="3" t="inlineStr">
         <is>
@@ -7022,31 +7013,31 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D146" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H146" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I146" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J146" s="3" t="inlineStr">
         <is>
@@ -7067,31 +7058,31 @@
       </c>
       <c r="B147" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D147" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F147" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H147" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I147" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J147" s="3" t="inlineStr">
         <is>
@@ -7112,31 +7103,31 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D148" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F148" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H148" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J148" s="3" t="inlineStr">
         <is>
@@ -7157,31 +7148,31 @@
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D149" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F149" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H149" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I149" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J149" s="3" t="inlineStr">
         <is>
@@ -7202,31 +7193,31 @@
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D150" s="2" t="n">
-        <v>559</v>
+        <v>369</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F150" s="2" t="n">
-        <v>88</v>
+        <v>-157</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H150" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I150" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J150" s="3" t="inlineStr">
         <is>
@@ -7247,31 +7238,31 @@
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-569</t>
+          <t>Nesma Airlines NE-171</t>
         </is>
       </c>
       <c r="D151" s="2" t="n">
-        <v>559</v>
+        <v>400</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F151" s="2" t="n">
-        <v>88</v>
+        <v>-126</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H151" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I151" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J151" s="3" t="inlineStr">
         <is>
@@ -7292,31 +7283,31 @@
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>Nile Air NP-128</t>
         </is>
       </c>
       <c r="D152" s="2" t="n">
-        <v>599</v>
+        <v>503</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F152" s="2" t="n">
-        <v>128</v>
+        <v>-23</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H152" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I152" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J152" s="3" t="inlineStr">
         <is>
@@ -7337,7 +7328,7 @@
       </c>
       <c r="B153" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C153" s="2" t="inlineStr">
@@ -7349,10 +7340,10 @@
         <v>605</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F153" s="2" t="n">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="G153" s="2" t="n">
         <v>46</v>
@@ -7382,7 +7373,7 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -7394,10 +7385,10 @@
         <v>700</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F154" s="2" t="n">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G154" s="2" t="n">
         <v>46</v>
@@ -7427,7 +7418,7 @@
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
@@ -7439,10 +7430,10 @@
         <v>700</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="F155" s="2" t="n">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="G155" s="2" t="n">
         <v>46</v>
@@ -7467,27 +7458,27 @@
     <row r="156">
       <c r="A156" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Nesma Airlines NE-171</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D156" s="2" t="n">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="E156" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F156" s="2" t="n">
-        <v>-126</v>
+        <v>-115</v>
       </c>
       <c r="G156" s="2" t="n">
         <v>30</v>
@@ -7512,12 +7503,12 @@
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
@@ -7557,36 +7548,36 @@
     <row r="158">
       <c r="A158" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-573</t>
+          <t>Air Arabia Egypt E5-322</t>
         </is>
       </c>
       <c r="D158" s="2" t="n">
-        <v>559</v>
+        <v>523</v>
       </c>
       <c r="E158" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F158" s="2" t="n">
-        <v>33</v>
+        <v>-3</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H158" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I158" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J158" s="3" t="inlineStr">
         <is>
@@ -7602,12 +7593,12 @@
     <row r="159">
       <c r="A159" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B159" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C159" s="2" t="inlineStr">
@@ -7647,12 +7638,12 @@
     <row r="160">
       <c r="A160" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
@@ -7692,17 +7683,17 @@
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C161" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-567</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D161" s="2" t="n">
@@ -7737,12 +7728,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -7782,12 +7773,12 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -7827,27 +7818,27 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-569</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D164" s="2" t="n">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="E164" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F164" s="2" t="n">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="G164" s="2" t="n">
         <v>40</v>
@@ -7872,17 +7863,17 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-571</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D165" s="2" t="n">
@@ -7917,36 +7908,36 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D166" s="2" t="n">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="E166" s="2" t="n">
         <v>526</v>
       </c>
       <c r="F166" s="2" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H166" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I166" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J166" s="3" t="inlineStr">
         <is>
@@ -7962,17 +7953,17 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-424</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-644</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D167" s="2" t="n">
@@ -8007,36 +7998,36 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>29-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>SM-480</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-662</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D168" s="2" t="n">
-        <v>700</v>
+        <v>411</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F168" s="2" t="n">
-        <v>174</v>
+        <v>-25</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="H168" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I168" s="2" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J168" s="3" t="inlineStr">
         <is>
@@ -8057,7 +8048,7 @@
       </c>
       <c r="B169" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C169" s="2" t="inlineStr">
@@ -8066,22 +8057,22 @@
         </is>
       </c>
       <c r="D169" s="2" t="n">
-        <v>369</v>
+        <v>559</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F169" s="2" t="n">
-        <v>-157</v>
+        <v>123</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H169" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I169" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J169" s="3" t="inlineStr">
         <is>
@@ -8102,7 +8093,7 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
@@ -8111,22 +8102,22 @@
         </is>
       </c>
       <c r="D170" s="2" t="n">
-        <v>369</v>
+        <v>559</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F170" s="2" t="n">
-        <v>-157</v>
+        <v>123</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H170" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I170" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J170" s="3" t="inlineStr">
         <is>
@@ -8147,31 +8138,31 @@
       </c>
       <c r="B171" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C171" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-589</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D171" s="2" t="n">
-        <v>369</v>
+        <v>559</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F171" s="2" t="n">
-        <v>-157</v>
+        <v>123</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H171" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I171" s="2" t="n">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="J171" s="3" t="inlineStr">
         <is>
@@ -8192,31 +8183,31 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D172" s="2" t="n">
-        <v>411</v>
+        <v>559</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F172" s="2" t="n">
-        <v>-115</v>
+        <v>123</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H172" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I172" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J172" s="3" t="inlineStr">
         <is>
@@ -8237,31 +8228,31 @@
       </c>
       <c r="B173" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C173" s="2" t="inlineStr">
         <is>
-          <t>Nile Air NP-128</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D173" s="2" t="n">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>526</v>
+        <v>436</v>
       </c>
       <c r="F173" s="2" t="n">
-        <v>-23</v>
+        <v>123</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H173" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I173" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J173" s="3" t="inlineStr">
         <is>
@@ -8282,22 +8273,22 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-322</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D174" s="2" t="n">
-        <v>523</v>
+        <v>411</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F174" s="2" t="n">
-        <v>-3</v>
+        <v>-60</v>
       </c>
       <c r="G174" s="2" t="n">
         <v>30</v>
@@ -8327,22 +8318,22 @@
       </c>
       <c r="B175" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C175" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D175" s="2" t="n">
         <v>559</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F175" s="2" t="n">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="G175" s="2" t="n">
         <v>40</v>
@@ -8372,31 +8363,31 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>SM-424</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D176" s="2" t="n">
-        <v>700</v>
+        <v>559</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="F176" s="2" t="n">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H176" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I176" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J176" s="3" t="inlineStr">
         <is>
@@ -8417,31 +8408,31 @@
       </c>
       <c r="B177" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C177" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-571</t>
         </is>
       </c>
       <c r="D177" s="2" t="n">
-        <v>411</v>
+        <v>559</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="F177" s="2" t="n">
-        <v>-25</v>
+        <v>88</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H177" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I177" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J177" s="3" t="inlineStr">
         <is>
@@ -8462,22 +8453,22 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>SM-478</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-589</t>
         </is>
       </c>
       <c r="D178" s="2" t="n">
         <v>559</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>436</v>
+        <v>471</v>
       </c>
       <c r="F178" s="2" t="n">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="G178" s="2" t="n">
         <v>40</v>
@@ -8512,26 +8503,26 @@
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D179" s="2" t="n">
-        <v>411</v>
+        <v>559</v>
       </c>
       <c r="E179" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F179" s="2" t="n">
-        <v>-60</v>
+        <v>88</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H179" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I179" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J179" s="3" t="inlineStr">
         <is>
@@ -8557,17 +8548,17 @@
       </c>
       <c r="C180" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>flynas XY-573</t>
         </is>
       </c>
       <c r="D180" s="2" t="n">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="E180" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F180" s="2" t="n">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="G180" s="2" t="n">
         <v>40</v>
@@ -8602,26 +8593,26 @@
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>EgyptAir MS-666</t>
+          <t>flynas XY-567</t>
         </is>
       </c>
       <c r="D181" s="2" t="n">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="E181" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F181" s="2" t="n">
-        <v>229</v>
+        <v>128</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H181" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I181" s="2" t="n">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="J181" s="3" t="inlineStr">
         <is>
@@ -8637,36 +8628,36 @@
     <row r="182">
       <c r="A182" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-569</t>
         </is>
       </c>
       <c r="D182" s="2" t="n">
-        <v>392</v>
+        <v>599</v>
       </c>
       <c r="E182" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F182" s="2" t="n">
-        <v>-79</v>
+        <v>128</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H182" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I182" s="2" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="J182" s="3" t="inlineStr">
         <is>
@@ -8682,36 +8673,36 @@
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>31-JAN-26</t>
+          <t>30-JAN-26</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-480</t>
         </is>
       </c>
       <c r="C183" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D183" s="2" t="n">
-        <v>411</v>
+        <v>700</v>
       </c>
       <c r="E183" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F183" s="2" t="n">
-        <v>-60</v>
+        <v>229</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="H183" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I183" s="2" t="n">
-        <v>0</v>
+        <v>-16</v>
       </c>
       <c r="J183" s="3" t="inlineStr">
         <is>
@@ -8737,26 +8728,26 @@
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D184" s="2" t="n">
-        <v>599</v>
+        <v>392</v>
       </c>
       <c r="E184" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F184" s="2" t="n">
-        <v>128</v>
+        <v>-79</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H184" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I184" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J184" s="3" t="inlineStr">
         <is>
@@ -8782,26 +8773,26 @@
       </c>
       <c r="C185" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D185" s="2" t="n">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="E185" s="2" t="n">
         <v>471</v>
       </c>
       <c r="F185" s="2" t="n">
-        <v>128</v>
+        <v>-60</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H185" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I185" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J185" s="3" t="inlineStr">
         <is>
@@ -8822,31 +8813,31 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>SM-450</t>
+          <t>SM-478</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>Air Arabia Egypt E5-362</t>
         </is>
       </c>
       <c r="D186" s="2" t="n">
-        <v>599</v>
+        <v>392</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>471</v>
+        <v>586</v>
       </c>
       <c r="F186" s="2" t="n">
-        <v>128</v>
+        <v>-194</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H186" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I186" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J186" s="3" t="inlineStr">
         <is>
@@ -8872,26 +8863,26 @@
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-362</t>
+          <t>flynas XY-565</t>
         </is>
       </c>
       <c r="D187" s="2" t="n">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="E187" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F187" s="2" t="n">
-        <v>-194</v>
+        <v>-177</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H187" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I187" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J187" s="3" t="inlineStr">
         <is>
@@ -8917,26 +8908,26 @@
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>Air Arabia Egypt E5-328</t>
+          <t>flynas XY-583</t>
         </is>
       </c>
       <c r="D188" s="2" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E188" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F188" s="2" t="n">
-        <v>-175</v>
+        <v>-177</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H188" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I188" s="2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J188" s="3" t="inlineStr">
         <is>
@@ -8962,26 +8953,26 @@
       </c>
       <c r="C189" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-565</t>
+          <t>flynas XY-577</t>
         </is>
       </c>
       <c r="D189" s="2" t="n">
-        <v>599</v>
+        <v>409</v>
       </c>
       <c r="E189" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F189" s="2" t="n">
-        <v>13</v>
+        <v>-177</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H189" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I189" s="2" t="n">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="J189" s="3" t="inlineStr">
         <is>
@@ -9007,26 +8998,26 @@
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-583</t>
+          <t>Air Arabia Egypt E5-328</t>
         </is>
       </c>
       <c r="D190" s="2" t="n">
-        <v>599</v>
+        <v>411</v>
       </c>
       <c r="E190" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F190" s="2" t="n">
-        <v>13</v>
+        <v>-175</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H190" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I190" s="2" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J190" s="3" t="inlineStr">
         <is>
@@ -9052,26 +9043,26 @@
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>flynas XY-577</t>
+          <t>EgyptAir MS-666</t>
         </is>
       </c>
       <c r="D191" s="2" t="n">
-        <v>599</v>
+        <v>825</v>
       </c>
       <c r="E191" s="2" t="n">
         <v>586</v>
       </c>
       <c r="F191" s="2" t="n">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H191" s="2" t="n">
         <v>30</v>
       </c>
       <c r="I191" s="2" t="n">
-        <v>-10</v>
+        <v>-16</v>
       </c>
       <c r="J191" s="3" t="inlineStr">
         <is>
@@ -9079,231 +9070,6 @@
         </is>
       </c>
       <c r="K191" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B192" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C192" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-571</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="n">
-        <v>639</v>
-      </c>
-      <c r="E192" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="F192" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="G192" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H192" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I192" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J192" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K192" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B193" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C193" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-589</t>
-        </is>
-      </c>
-      <c r="D193" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="E193" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="F193" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="G193" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H193" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I193" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J193" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K193" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B194" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C194" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-569</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="n">
-        <v>679</v>
-      </c>
-      <c r="E194" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="F194" s="2" t="n">
-        <v>93</v>
-      </c>
-      <c r="G194" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H194" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I194" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J194" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K194" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B195" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C195" s="2" t="inlineStr">
-        <is>
-          <t>flynas XY-573</t>
-        </is>
-      </c>
-      <c r="D195" s="2" t="n">
-        <v>719</v>
-      </c>
-      <c r="E195" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="F195" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="G195" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="H195" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I195" s="2" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J195" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K195" s="2" t="inlineStr">
-        <is>
-          <t>SAR</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>31-JAN-26</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>SM-478</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>EgyptAir MS-666</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="n">
-        <v>825</v>
-      </c>
-      <c r="E196" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="F196" s="2" t="n">
-        <v>239</v>
-      </c>
-      <c r="G196" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="H196" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="I196" s="2" t="n">
-        <v>-16</v>
-      </c>
-      <c r="J196" s="3" t="inlineStr">
-        <is>
-          <t>LOW THREAT</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr">
         <is>
           <t>SAR</t>
         </is>
